--- a/PASS/SANGAM EDUCATIONAL.xlsx
+++ b/PASS/SANGAM EDUCATIONAL.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="112">
   <si>
     <t>KKM000000088031/2025</t>
   </si>
@@ -258,7 +258,100 @@
     <t>TSPS01659967</t>
   </si>
   <si>
-    <t>TOTAL</t>
+    <t>TSPS02577110</t>
+  </si>
+  <si>
+    <t>KKM000000157437/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577105</t>
+  </si>
+  <si>
+    <t>KKM000000157408/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577103</t>
+  </si>
+  <si>
+    <t>KKM000000157395/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577101</t>
+  </si>
+  <si>
+    <t>KKM000000157389/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577099</t>
+  </si>
+  <si>
+    <t>KKM000000157376/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577096</t>
+  </si>
+  <si>
+    <t>KKM000000157358/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577092</t>
+  </si>
+  <si>
+    <t>KKM000000157333/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577091</t>
+  </si>
+  <si>
+    <t>KKM000000157330/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577134</t>
+  </si>
+  <si>
+    <t>KKM000000157819/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577132</t>
+  </si>
+  <si>
+    <t>KKM000000157807/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577131</t>
+  </si>
+  <si>
+    <t>KKM000000157781/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577130</t>
+  </si>
+  <si>
+    <t>KKM000000157776/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577129</t>
+  </si>
+  <si>
+    <t>KKM000000157768/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577127</t>
+  </si>
+  <si>
+    <t>KKM000000157747/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577125</t>
+  </si>
+  <si>
+    <t>KKM000000157736/2025</t>
+  </si>
+  <si>
+    <t>TSPS02577124</t>
+  </si>
+  <si>
+    <t>KKM000000157731/2025</t>
   </si>
 </sst>
 </file>
@@ -319,7 +412,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -342,91 +435,38 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -722,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -734,1104 +774,1506 @@
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:8" s="12" customFormat="1" ht="33.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="F3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="3">
         <v>22</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="3">
         <f>G3</f>
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="F4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="3">
         <v>22</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="3">
         <f>G4+H3</f>
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="F5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="3">
         <v>22</v>
       </c>
-      <c r="H5" s="6">
-        <f t="shared" ref="H5:H35" si="0">G5+H4</f>
+      <c r="H5" s="3">
+        <f t="shared" ref="H5:H51" si="0">G5+H4</f>
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="6">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="F6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="3">
         <v>22</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="3">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="6">
+      <c r="F7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="3">
         <v>22</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="3">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="F8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="3">
         <v>22</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="3">
         <f t="shared" si="0"/>
         <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="6">
+      <c r="F9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="3">
         <v>22</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="3">
         <f t="shared" si="0"/>
         <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="6">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="D10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="F10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="3">
         <v>22</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="3">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="6">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="D11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="6">
+      <c r="F11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="3">
         <v>16</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="3">
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="6">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="4">
         <v>45879</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="D12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="6">
-        <v>32</v>
-      </c>
-      <c r="H12" s="6">
+      <c r="F12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="3">
+        <v>32</v>
+      </c>
+      <c r="H12" s="3">
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="6">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="4">
         <v>45879</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="D13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="6">
-        <v>32</v>
-      </c>
-      <c r="H13" s="6">
+      <c r="F13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="3">
+        <v>32</v>
+      </c>
+      <c r="H13" s="3">
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="6">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="4">
         <v>45879</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="D14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="6">
-        <v>32</v>
-      </c>
-      <c r="H14" s="6">
+      <c r="F14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="3">
+        <v>32</v>
+      </c>
+      <c r="H14" s="3">
         <f t="shared" si="0"/>
         <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="6">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="4">
         <v>45879</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="D15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="6">
-        <v>32</v>
-      </c>
-      <c r="H15" s="6">
+      <c r="F15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="3">
+        <v>32</v>
+      </c>
+      <c r="H15" s="3">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="6">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="4">
         <v>45879</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="6" t="s">
+      <c r="D16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="6">
-        <v>32</v>
-      </c>
-      <c r="H16" s="6">
+      <c r="F16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="3">
+        <v>32</v>
+      </c>
+      <c r="H16" s="3">
         <f t="shared" si="0"/>
         <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="6">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="4">
         <v>45879</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="D17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="6">
-        <v>32</v>
-      </c>
-      <c r="H17" s="6">
+      <c r="F17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="3">
+        <v>32</v>
+      </c>
+      <c r="H17" s="3">
         <f t="shared" si="0"/>
         <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="6">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="4">
         <v>45879</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="6">
+      <c r="D18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="3">
         <v>22</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="3">
         <f t="shared" si="0"/>
         <v>406</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="6">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="4">
         <v>45879</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="6" t="s">
+      <c r="D19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="6">
+      <c r="F19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="3">
         <v>22</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="3">
         <f t="shared" si="0"/>
         <v>428</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="6">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="D20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="10">
-        <v>32</v>
-      </c>
-      <c r="H20" s="6">
+      <c r="F20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="6">
+        <v>32</v>
+      </c>
+      <c r="H20" s="3">
         <f t="shared" si="0"/>
         <v>460</v>
       </c>
-      <c r="I20" s="9"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="6">
+      <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="D21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="10">
-        <v>32</v>
-      </c>
-      <c r="H21" s="6">
+      <c r="F21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="6">
+        <v>32</v>
+      </c>
+      <c r="H21" s="3">
         <f t="shared" si="0"/>
         <v>492</v>
       </c>
-      <c r="I21" s="9"/>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="6">
+      <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="6" t="s">
+      <c r="D22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" s="10">
+      <c r="F22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="6">
         <v>25</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="3">
         <f t="shared" si="0"/>
         <v>517</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="6">
+      <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="6" t="s">
+      <c r="D23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G23" s="6">
-        <v>32</v>
-      </c>
-      <c r="H23" s="6">
+      <c r="F23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="3">
+        <v>32</v>
+      </c>
+      <c r="H23" s="3">
         <f t="shared" si="0"/>
         <v>549</v>
       </c>
-      <c r="I23" s="9"/>
+      <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="6">
+      <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="6" t="s">
+      <c r="D24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" s="6">
-        <v>32</v>
-      </c>
-      <c r="H24" s="6">
+      <c r="F24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="3">
+        <v>32</v>
+      </c>
+      <c r="H24" s="3">
         <f t="shared" si="0"/>
         <v>581</v>
       </c>
-      <c r="I24" s="9"/>
+      <c r="I24" s="5"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="6">
+      <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="6" t="s">
+      <c r="D25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" s="6">
-        <v>32</v>
-      </c>
-      <c r="H25" s="6">
+      <c r="F25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="3">
+        <v>32</v>
+      </c>
+      <c r="H25" s="3">
         <f t="shared" si="0"/>
         <v>613</v>
       </c>
-      <c r="I25" s="9"/>
+      <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="6">
+      <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="6" t="s">
+      <c r="D26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G26" s="6">
-        <v>32</v>
-      </c>
-      <c r="H26" s="6">
+      <c r="F26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="3">
+        <v>32</v>
+      </c>
+      <c r="H26" s="3">
         <f t="shared" si="0"/>
         <v>645</v>
       </c>
-      <c r="I26" s="9"/>
+      <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="6">
+      <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="6" t="s">
+      <c r="D27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="6">
-        <v>32</v>
-      </c>
-      <c r="H27" s="6">
+      <c r="F27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="3">
+        <v>32</v>
+      </c>
+      <c r="H27" s="3">
         <f t="shared" si="0"/>
         <v>677</v>
       </c>
-      <c r="I27" s="9"/>
+      <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="6">
+      <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="6" t="s">
+      <c r="D28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G28" s="6">
-        <v>32</v>
-      </c>
-      <c r="H28" s="6">
+      <c r="F28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="3">
+        <v>32</v>
+      </c>
+      <c r="H28" s="3">
         <f t="shared" si="0"/>
         <v>709</v>
       </c>
-      <c r="I28" s="9"/>
+      <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="6">
+      <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="6" t="s">
+      <c r="D29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G29" s="6">
-        <v>32</v>
-      </c>
-      <c r="H29" s="6">
+      <c r="F29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="3">
+        <v>32</v>
+      </c>
+      <c r="H29" s="3">
         <f t="shared" si="0"/>
         <v>741</v>
       </c>
-      <c r="I29" s="9"/>
+      <c r="I29" s="5"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="6">
+      <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="6" t="s">
+      <c r="D30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G30" s="6">
-        <v>32</v>
-      </c>
-      <c r="H30" s="6">
+      <c r="F30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="3">
+        <v>32</v>
+      </c>
+      <c r="H30" s="3">
         <f t="shared" si="0"/>
         <v>773</v>
       </c>
-      <c r="I30" s="9"/>
+      <c r="I30" s="5"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="6">
+      <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="6" t="s">
+      <c r="D31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G31" s="6">
-        <v>32</v>
-      </c>
-      <c r="H31" s="6">
+      <c r="F31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="3">
+        <v>32</v>
+      </c>
+      <c r="H31" s="3">
         <f t="shared" si="0"/>
         <v>805</v>
       </c>
-      <c r="I31" s="9"/>
+      <c r="I31" s="5"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="6">
+      <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="6" t="s">
+      <c r="D32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G32" s="6">
-        <v>32</v>
-      </c>
-      <c r="H32" s="6">
+      <c r="F32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" s="3">
+        <v>32</v>
+      </c>
+      <c r="H32" s="3">
         <f t="shared" si="0"/>
         <v>837</v>
       </c>
-      <c r="I32" s="9"/>
+      <c r="I32" s="5"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="6">
+      <c r="A33" s="3">
         <v>31</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" s="6" t="s">
+      <c r="D33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F33" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G33" s="6">
-        <v>32</v>
-      </c>
-      <c r="H33" s="6">
+      <c r="F33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="3">
+        <v>32</v>
+      </c>
+      <c r="H33" s="3">
         <f t="shared" si="0"/>
         <v>869</v>
       </c>
-      <c r="I33" s="9"/>
+      <c r="I33" s="5"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="6">
-        <v>32</v>
-      </c>
-      <c r="B34" s="10" t="s">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34" s="6" t="s">
+      <c r="D34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F34" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G34" s="6">
+      <c r="F34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" s="3">
         <v>24</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="3">
         <f t="shared" si="0"/>
         <v>893</v>
       </c>
-      <c r="I34" s="9"/>
-    </row>
-    <row r="35" spans="1:9" s="9" customFormat="1">
-      <c r="A35" s="6">
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" s="5" customFormat="1">
+      <c r="A35" s="3">
         <v>33</v>
       </c>
-      <c r="B35" s="14">
+      <c r="B35" s="8">
         <v>45668</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" s="6" t="s">
+      <c r="D35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F35" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G35" s="10">
-        <v>32</v>
-      </c>
-      <c r="H35" s="6">
+      <c r="F35" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" s="6">
+        <v>32</v>
+      </c>
+      <c r="H35" s="3">
         <f t="shared" si="0"/>
         <v>925</v>
       </c>
-      <c r="I35" s="13"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="17" t="s">
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:9" s="5" customFormat="1">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="8">
+        <v>45820</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G36" s="3">
+        <v>32</v>
+      </c>
+      <c r="H36" s="3">
+        <f t="shared" si="0"/>
+        <v>957</v>
+      </c>
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="1:9" s="5" customFormat="1">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" s="8">
+        <v>45820</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G37" s="3">
+        <v>32</v>
+      </c>
+      <c r="H37" s="3">
+        <f t="shared" si="0"/>
+        <v>989</v>
+      </c>
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:9" s="5" customFormat="1">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="8">
+        <v>45820</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38" s="3">
+        <v>32</v>
+      </c>
+      <c r="H38" s="3">
+        <f t="shared" si="0"/>
+        <v>1021</v>
+      </c>
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="1:9" s="5" customFormat="1">
+      <c r="A39" s="3">
+        <v>37</v>
+      </c>
+      <c r="B39" s="8">
+        <v>45820</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G39" s="3">
+        <v>32</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" si="0"/>
+        <v>1053</v>
+      </c>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="1:9" s="5" customFormat="1">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" s="8">
+        <v>45820</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40" s="3">
+        <v>32</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" si="0"/>
+        <v>1085</v>
+      </c>
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="1:9" s="5" customFormat="1">
+      <c r="A41" s="3">
+        <v>39</v>
+      </c>
+      <c r="B41" s="8">
+        <v>45820</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G41" s="3">
+        <v>32</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" si="0"/>
+        <v>1117</v>
+      </c>
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="1:9" s="5" customFormat="1">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="8">
+        <v>45820</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" s="3">
+        <v>32</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="0"/>
+        <v>1149</v>
+      </c>
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="1:9" s="5" customFormat="1">
+      <c r="A43" s="3">
+        <v>41</v>
+      </c>
+      <c r="B43" s="8">
+        <v>45820</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="16"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="12"/>
-      <c r="B39" s="9"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="12"/>
-      <c r="B40" s="9"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
+      <c r="F43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G43" s="3">
+        <v>32</v>
+      </c>
+      <c r="H43" s="3">
+        <f t="shared" si="0"/>
+        <v>1181</v>
+      </c>
+      <c r="I43" s="7"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" s="8">
+        <v>45820</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44" s="3">
+        <v>32</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" si="0"/>
+        <v>1213</v>
+      </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
+      <c r="A45" s="3">
+        <v>43</v>
+      </c>
+      <c r="B45" s="8">
+        <v>45820</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G45" s="3">
+        <v>32</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" si="0"/>
+        <v>1245</v>
+      </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
+      <c r="A46" s="3">
+        <v>44</v>
+      </c>
+      <c r="B46" s="8">
+        <v>45820</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G46" s="3">
+        <v>32</v>
+      </c>
+      <c r="H46" s="3">
+        <f t="shared" si="0"/>
+        <v>1277</v>
+      </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
+      <c r="A47" s="3">
+        <v>45</v>
+      </c>
+      <c r="B47" s="8">
+        <v>45820</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G47" s="3">
+        <v>32</v>
+      </c>
+      <c r="H47" s="3">
+        <f t="shared" si="0"/>
+        <v>1309</v>
+      </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9"/>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="9"/>
-      <c r="B64" s="9"/>
+      <c r="A48" s="3">
+        <v>46</v>
+      </c>
+      <c r="B48" s="8">
+        <v>45820</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G48" s="3">
+        <v>32</v>
+      </c>
+      <c r="H48" s="3">
+        <f t="shared" si="0"/>
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="3">
+        <v>47</v>
+      </c>
+      <c r="B49" s="8">
+        <v>45820</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G49" s="3">
+        <v>32</v>
+      </c>
+      <c r="H49" s="3">
+        <f t="shared" si="0"/>
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="3">
+        <v>48</v>
+      </c>
+      <c r="B50" s="8">
+        <v>45820</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G50" s="3">
+        <v>32</v>
+      </c>
+      <c r="H50" s="3">
+        <f t="shared" si="0"/>
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="3">
+        <v>49</v>
+      </c>
+      <c r="B51" s="8">
+        <v>45820</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G51" s="3">
+        <v>32</v>
+      </c>
+      <c r="H51" s="3">
+        <f t="shared" si="0"/>
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="9"/>
-      <c r="B65" s="9"/>
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9"/>
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="9"/>
-      <c r="B67" s="9"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9"/>
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:H36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PASS/SANGAM EDUCATIONAL.xlsx
+++ b/PASS/SANGAM EDUCATIONAL.xlsx
@@ -764,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:A51"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
